--- a/docs/in_dev/Tasks.xlsx
+++ b/docs/in_dev/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\DEV\Games-Engine\docs\in_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0EF090-3D08-4575-937D-783F05AECD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48E2D2A-7BDF-4430-8E0E-F04B453AB2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1890" windowWidth="14610" windowHeight="11295" activeTab="1" xr2:uid="{A054EED8-4EF9-4311-B4A2-0648BC83C2CF}"/>
+    <workbookView xWindow="1695" yWindow="2340" windowWidth="14610" windowHeight="11295" activeTab="2" xr2:uid="{A054EED8-4EF9-4311-B4A2-0648BC83C2CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Explorations" sheetId="3" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="204">
   <si>
     <t>task_name</t>
   </si>
@@ -756,6 +756,67 @@
   </si>
   <si>
     <t>Requirements'!A6</t>
+  </si>
+  <si>
+    <t>OpenGL with SDL</t>
+  </si>
+  <si>
+    <t>There is an OpenGL Flag that is required if opengl is being used in a SDL Windowc
+I was able to get a grey screen as I wanted</t>
+  </si>
+  <si>
+    <t>multiple definition of</t>
+  </si>
+  <si>
+    <t>Usually cause by not having header guard
+on a header file
+And even when this is fixed, I will still need to delete one of the effected object file</t>
+  </si>
+  <si>
+    <t>Tasks\DearImGui Abstraction</t>
+  </si>
+  <si>
+    <t>Requirements'!A48</t>
+  </si>
+  <si>
+    <t>Make SDLGLContextWrapper nd DearImGuiWrapper no longer be a
+composition of SDLWindowWrapper</t>
+  </si>
+  <si>
+    <t>Make sure it is easy to extend functionality</t>
+  </si>
+  <si>
+    <t>The refactored code, has different behavior, to the behavior that existed before</t>
+  </si>
+  <si>
+    <t>Create a triangle that can be rendered in OpenGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given I have created a new abstraction, to extend functionality
+Then I should decouple objects from Unnessessary composition
+So that I can minimise the amount of dependancies that exist between some classes
+</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Try Bigger tasks</t>
+  </si>
+  <si>
+    <t>Try working on tasks,which have multiple features, 
+as it is likely to be easier to have less context switching between, analysis, design, implementation and testing(verification). Try a time frame of 1(Task) approximately 3 hours of work</t>
+  </si>
+  <si>
+    <t>Tasks\Decouple DearImGuiWrapper and Hello Triangle</t>
+  </si>
+  <si>
+    <t>Something did not work even though I passes a pointer</t>
+  </si>
+  <si>
+    <t>In some circumstances I may need to use 
+either a reference to a pointer or a 
+pointer to a pointer</t>
   </si>
 </sst>
 </file>
@@ -828,7 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -844,12 +905,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1022,9 +1142,9 @@
   <autoFilter ref="A1:F99" xr:uid="{9F5CD7F2-3B5B-4810-A49B-2830A1135BFB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5117ADF5-87AF-4A55-9755-F1E6ADAD8945}" name="Exploration"/>
-    <tableColumn id="2" xr3:uid="{774E47D3-C7E3-4232-8461-172D5C2BDC0A}" name="Name" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{CC632D52-E408-4BFA-B2EA-6A1319AC8F57}" name="Description &amp; Measurables" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{DA98B359-142A-4ED7-9D1D-5CCAA8375709}" name="Findings" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{774E47D3-C7E3-4232-8461-172D5C2BDC0A}" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{CC632D52-E408-4BFA-B2EA-6A1319AC8F57}" name="Description &amp; Measurables" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{DA98B359-142A-4ED7-9D1D-5CCAA8375709}" name="Findings" dataDxfId="29"/>
     <tableColumn id="5" xr3:uid="{AB7D366C-AF6B-40C1-9476-58153134517D}" name="details"/>
     <tableColumn id="6" xr3:uid="{19A1C25D-0C6B-4268-AD85-B1E4CD521742}" name="Requirement Reference"/>
   </tableColumns>
@@ -1033,29 +1153,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0628A734-1D1E-43AA-B3E5-C20F6C85E3C1}" name="Requirements" displayName="Requirements" ref="A1:G99" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:G99" xr:uid="{0628A734-1D1E-43AA-B3E5-C20F6C85E3C1}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Initialisation of OpenGl in an SDL Window"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0628A734-1D1E-43AA-B3E5-C20F6C85E3C1}" name="Requirements" displayName="Requirements" ref="A1:G99" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:G99" xr:uid="{0628A734-1D1E-43AA-B3E5-C20F6C85E3C1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0A94DA16-9777-44C9-B492-E0EF8F71BA20}" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A2EC46AC-7667-4473-BBB2-7916969EF19E}" name="Requirement" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{C385B93F-B4B7-466A-9252-0FF1BB6C203A}" name="Specification" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{1C382CF1-FF71-43D5-9950-4ED847E3F9DA}" name="Category" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{420A7773-2771-411B-A4C5-E0AF7BA4CE64}" name="Failure Cases" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{B3C648D9-072E-41EA-933D-5EFFA3C90AEA}" name="Status" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{0A2F8B1C-CE66-419F-B04F-4C018B19657D}" name="Documents" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{0A94DA16-9777-44C9-B492-E0EF8F71BA20}" name="ID" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A2EC46AC-7667-4473-BBB2-7916969EF19E}" name="Requirement" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{C385B93F-B4B7-466A-9252-0FF1BB6C203A}" name="Specification" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{1C382CF1-FF71-43D5-9950-4ED847E3F9DA}" name="Category" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{420A7773-2771-411B-A4C5-E0AF7BA4CE64}" name="Failure Cases" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{B3C648D9-072E-41EA-933D-5EFFA3C90AEA}" name="Status" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{0A2F8B1C-CE66-419F-B04F-4C018B19657D}" name="Documents" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51AD4D47-4E23-49FF-AA07-42E772E2B322}" name="Tasks" displayName="Tasks" ref="A1:F40" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51AD4D47-4E23-49FF-AA07-42E772E2B322}" name="Tasks" displayName="Tasks" ref="A1:F40" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:F40" xr:uid="{51AD4D47-4E23-49FF-AA07-42E772E2B322}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9C19DA19-06D7-484B-B60B-C9E98421832B}" name="task_id"/>
@@ -1369,8 +1483,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,20 +1623,28 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,8 +2379,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2417,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2320,7 +2442,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2343,7 +2465,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2366,7 +2488,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2412,7 +2534,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2433,7 +2555,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2456,7 +2578,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2475,7 +2597,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2491,7 +2613,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2507,7 +2629,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2528,7 +2650,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2542,7 +2664,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2563,7 +2685,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2577,7 +2699,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2595,7 +2717,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2613,7 +2735,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2634,7 +2756,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2652,7 +2774,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2670,7 +2792,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2688,7 +2810,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2706,7 +2828,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2727,7 +2849,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2743,7 +2865,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2759,7 +2881,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2775,7 +2897,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2791,7 +2913,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2807,7 +2929,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2823,7 +2945,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2839,7 +2961,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2855,7 +2977,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2871,7 +2993,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2887,7 +3009,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2906,7 +3028,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2925,7 +3047,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2941,7 +3063,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2957,7 +3079,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2973,7 +3095,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2989,7 +3111,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3005,7 +3127,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3021,7 +3143,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3037,7 +3159,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3053,7 +3175,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3069,7 +3191,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3085,7 +3207,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3101,7 +3223,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3124,7 +3246,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3143,19 +3265,28 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3167,7 +3298,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3179,7 +3310,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3191,7 +3322,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3203,7 +3334,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3215,7 +3346,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3227,7 +3358,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3239,7 +3370,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3251,7 +3382,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3263,7 +3394,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3275,7 +3406,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3287,7 +3418,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3299,7 +3430,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3311,7 +3442,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3323,7 +3454,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3335,7 +3466,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3347,7 +3478,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3359,7 +3490,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3371,7 +3502,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3383,7 +3514,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3395,7 +3526,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3407,7 +3538,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3419,7 +3550,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3431,7 +3562,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3443,7 +3574,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3455,7 +3586,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3467,7 +3598,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3479,7 +3610,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3491,7 +3622,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3503,7 +3634,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3515,7 +3646,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3527,7 +3658,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3539,7 +3670,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3551,7 +3682,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3563,7 +3694,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3575,7 +3706,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3587,7 +3718,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3599,7 +3730,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3611,7 +3742,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3623,7 +3754,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3635,7 +3766,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3647,7 +3778,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3659,7 +3790,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3671,7 +3802,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3683,7 +3814,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3695,7 +3826,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3707,7 +3838,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3719,7 +3850,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3731,7 +3862,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3743,7 +3874,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3762,10 +3893,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:G8 A50:G99 A9:A49 B9:G48">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$F2="Specified"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>$F2="Imprecise"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3799,17 +3930,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3984,7 +4115,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>185</v>
@@ -4004,63 +4135,57 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>184</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4068,10 +4193,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -4082,7 +4207,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -4096,7 +4221,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -4110,7 +4235,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -4123,13 +4248,22 @@
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -4143,7 +4277,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -4157,7 +4291,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
@@ -4170,22 +4304,13 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -4199,10 +4324,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -4213,10 +4338,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -4227,10 +4352,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -4241,10 +4366,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -4255,7 +4380,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -4268,20 +4393,56 @@
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,35 +4496,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G38:M100">
-    <cfRule type="expression" dxfId="6" priority="31">
+    <cfRule type="expression" dxfId="14" priority="31">
       <formula>$D43="Todo"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="32">
+    <cfRule type="expression" dxfId="13" priority="32">
       <formula>$D43="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="33">
+    <cfRule type="expression" dxfId="12" priority="33">
       <formula>$D43="Verifying"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:XFD15 E38:XFD38 E40:XFD1048576 F39:XFD39">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="E1:XFD10 G11:XFD15 E42:XFD1048576">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$D1048569="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="10" priority="28">
       <formula>$D1048569="Todo"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="9" priority="29">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="30">
+    <cfRule type="expression" dxfId="8" priority="30">
+      <formula>#REF!="Verifying"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:F19">
+    <cfRule type="expression" dxfId="7" priority="38">
+      <formula>$D3="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="39">
+      <formula>$D3="Todo"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="40">
+      <formula>#REF!="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="41">
+      <formula>#REF!="Verifying"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:XFD38 E40:XFD41 F39:XFD39">
+    <cfRule type="expression" dxfId="3" priority="46">
+      <formula>#REF!="In Progress"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="47">
+      <formula>#REF!="Todo"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="48">
+      <formula>#REF!="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="49">
       <formula>#REF!="Verifying"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E1048576 D39 D1:D7 D9:D18 D20:D31" xr:uid="{B2ECEBF1-4100-48A3-B222-43D16336B677}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E1048576 D39 D1:D7 D24:D33 D15:D22 D9:D10" xr:uid="{B2ECEBF1-4100-48A3-B222-43D16336B677}">
       <formula1>"Todo,Implementing,Verifying,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D1048576 C39 C1:C7 C9:C18 C20:C31" xr:uid="{C199BECC-2F91-4515-BFFB-642A64BA0943}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D1048576 C39 C1:C7 C24:C33 C15:C22 C9:C10" xr:uid="{C199BECC-2F91-4515-BFFB-642A64BA0943}">
       <formula1>"Development Process,Exploration,Refactor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4382,11 +4571,15 @@
     <hyperlink ref="E8" r:id="rId6" xr:uid="{255A6CF4-4EF9-44CC-A56F-726D3396317B}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{A996B69D-A9B9-4D14-99C3-2D6198E5E1DE}"/>
     <hyperlink ref="F9" location="'Requirements'!A6" display="'Requirements'!A6" xr:uid="{71874765-B82D-4A0B-80B9-43890CBCC3B8}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{BCF8E6FD-8E11-4A44-97FC-8BC782CC5EA5}"/>
+    <hyperlink ref="F10" location="'Requirements'!A48" display="'Requirements'!A48" xr:uid="{10A83D37-0D96-4664-BAB1-E3F6D481CEB4}"/>
+    <hyperlink ref="F11" location="'Requirements'!A48" display="'Requirements'!A48" xr:uid="{6AC03FA1-049F-44FD-8A39-8B7073AB2FFD}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{8B6AB30A-9B58-4F22-B64D-176228AEAD4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4395,8 +4588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F670DC4A-1B2D-4DAA-AB03-A88EC9E9FF89}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,14 +4713,26 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
